--- a/Andrew-annotations/VZ_Q2_2018.xlsx
+++ b/Andrew-annotations/VZ_Q2_2018.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\Desktop\School\College\Fall 2023\VIP 3602\SubjECTive-QA\Andrew-annotations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{992F3DA0-D6E2-4411-9BB2-E9837B8D316E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E769914-058C-4740-8243-C34B1022D136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -636,8 +636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="66" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -735,7 +735,7 @@
         <v>2</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -758,19 +758,19 @@
         <v>2</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
@@ -790,13 +790,13 @@
         <v>2</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5">
         <v>2</v>
@@ -831,7 +831,7 @@
         <v>2</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>2</v>
@@ -854,13 +854,13 @@
         <v>2</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7">
         <v>2</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9">
         <v>2</v>
       </c>
       <c r="J9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
@@ -959,7 +959,7 @@
         <v>2</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>2</v>
@@ -985,16 +985,16 @@
         <v>2</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="273.60000000000002" x14ac:dyDescent="0.3">
@@ -1023,7 +1023,7 @@
         <v>2</v>
       </c>
       <c r="I12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>2</v>
@@ -1046,7 +1046,7 @@
         <v>2</v>
       </c>
       <c r="F13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1058,7 +1058,7 @@
         <v>2</v>
       </c>
       <c r="J13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
@@ -1110,7 +1110,7 @@
         <v>2</v>
       </c>
       <c r="F15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>2</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>2</v>
@@ -1139,7 +1139,7 @@
         <v>47</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
         <v>2</v>
@@ -1171,19 +1171,19 @@
         <v>48</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
         <v>2</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>2</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18">
         <v>2</v>
@@ -1235,19 +1235,19 @@
         <v>52</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>2</v>
@@ -1267,7 +1267,7 @@
         <v>55</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20">
         <v>2</v>
@@ -1276,13 +1276,13 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
